--- a/src/main/resources/files/security.xlsx
+++ b/src/main/resources/files/security.xlsx
@@ -1,37 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28816"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\working\waccache\CP1PEPF000069B3\EXCELCNV\567d6d72-f7d5-4b34-85d6-0a05c4db59ef\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thibp\IdeaProjects\Java-application\src\main\resources\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{82275E32-453A-4306-8147-E56E058092D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{458040AC-9B87-4100-A460-C5A24777359C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5204B9D2-D2CB-41FD-B783-02D09B391745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="15480" windowHeight="11640" xr2:uid="{532AC136-DFAC-42F4-9EEE-F6DDC94847CD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{5B4ADBCA-F050-4381-A7A3-69A4F60FA821}"/>
   </bookViews>
   <sheets>
-    <sheet name="in" sheetId="1" r:id="rId1"/>
+    <sheet name="property" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -321,25 +305,25 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Calibri Light"/>
+      <name val="Aptos Display"/>
       <family val="2"/>
       <scheme val="major"/>
     </font>
@@ -347,7 +331,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -355,7 +339,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -363,35 +347,35 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -399,7 +383,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -407,14 +391,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -422,14 +406,14 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -437,7 +421,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -445,14 +429,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -798,8 +782,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Ênfase1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -859,7 +844,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -869,39 +854,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -953,7 +938,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1064,13 +1049,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1079,6 +1057,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1143,38 +1128,58 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3DC1CB2-69FB-4144-BDF3-FD94E0689459}">
-  <dimension ref="A1:J186"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7898EC9D-6B8B-496B-86D7-6F3BCF76FEEC}">
+  <dimension ref="A1:K186"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J186"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>8.4420000000000002</v>
+      <c r="B1" s="1">
+        <v>8442</v>
       </c>
       <c r="C1">
         <v>53</v>
       </c>
-      <c r="D1">
-        <v>3.2010000000000001</v>
+      <c r="D1" s="1">
+        <v>3201</v>
       </c>
       <c r="E1">
         <v>0</v>
@@ -1194,19 +1199,22 @@
       <c r="J1">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>12.997</v>
+      <c r="B2" s="1">
+        <v>12997</v>
       </c>
       <c r="C2">
         <v>152</v>
       </c>
-      <c r="D2">
-        <v>3.4039999999999999</v>
+      <c r="D2" s="1">
+        <v>3404</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -1226,13 +1234,16 @@
       <c r="J2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="K2">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>3.7440000000000002</v>
+      <c r="B3" s="1">
+        <v>3744</v>
       </c>
       <c r="C3">
         <v>7</v>
@@ -1258,19 +1269,22 @@
       <c r="J3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="K3">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4">
-        <v>4.8630000000000004</v>
+      <c r="B4" s="1">
+        <v>4863</v>
       </c>
       <c r="C4">
         <v>14</v>
       </c>
-      <c r="D4">
-        <v>1.0629999999999999</v>
+      <c r="D4" s="1">
+        <v>1063</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1290,19 +1304,22 @@
       <c r="J4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="K4">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B5">
-        <v>8.3550000000000004</v>
+      <c r="B5" s="1">
+        <v>8355</v>
       </c>
       <c r="C5">
         <v>10</v>
       </c>
-      <c r="D5">
-        <v>4.4029999999999996</v>
+      <c r="D5" s="1">
+        <v>4403</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1322,19 +1339,22 @@
       <c r="J5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="K5">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
-      <c r="B6">
-        <v>13.098000000000001</v>
+      <c r="B6" s="1">
+        <v>13098</v>
       </c>
       <c r="C6">
         <v>20</v>
       </c>
-      <c r="D6">
-        <v>4.9580000000000002</v>
+      <c r="D6" s="1">
+        <v>4958</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1354,19 +1374,22 @@
       <c r="J6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="K6">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
-      <c r="B7">
-        <v>4.2859999999999996</v>
+      <c r="B7" s="1">
+        <v>4286</v>
       </c>
       <c r="C7">
         <v>4</v>
       </c>
-      <c r="D7">
-        <v>1.649</v>
+      <c r="D7" s="1">
+        <v>1649</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1386,19 +1409,22 @@
       <c r="J7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="K7">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
-      <c r="B8">
-        <v>6.5350000000000001</v>
+      <c r="B8" s="1">
+        <v>6535</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
-      <c r="D8">
-        <v>2.6909999999999998</v>
+      <c r="D8" s="1">
+        <v>2691</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1418,13 +1444,16 @@
       <c r="J8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="K8">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
-      <c r="B9">
-        <v>2.2290000000000001</v>
+      <c r="B9" s="1">
+        <v>2229</v>
       </c>
       <c r="C9">
         <v>3</v>
@@ -1450,19 +1479,22 @@
       <c r="J9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="K9">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
-      <c r="B10">
-        <v>3.2949999999999999</v>
+      <c r="B10" s="1">
+        <v>3295</v>
       </c>
       <c r="C10">
         <v>5</v>
       </c>
-      <c r="D10">
-        <v>1.19</v>
+      <c r="D10" s="1">
+        <v>1190</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1482,13 +1514,16 @@
       <c r="J10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="K10">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
-      <c r="B11">
-        <v>1.627</v>
+      <c r="B11" s="1">
+        <v>1627</v>
       </c>
       <c r="C11">
         <v>7</v>
@@ -1514,13 +1549,16 @@
       <c r="J11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="K11">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>5</v>
       </c>
-      <c r="B12">
-        <v>2.0840000000000001</v>
+      <c r="B12" s="1">
+        <v>2084</v>
       </c>
       <c r="C12">
         <v>11</v>
@@ -1546,19 +1584,22 @@
       <c r="J12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="K12">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>6</v>
       </c>
-      <c r="B13">
-        <v>2.4449999999999998</v>
+      <c r="B13" s="1">
+        <v>2445</v>
       </c>
       <c r="C13">
         <v>14</v>
       </c>
-      <c r="D13">
-        <v>1.1319999999999999</v>
+      <c r="D13" s="1">
+        <v>1132</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -1578,25 +1619,28 @@
       <c r="J13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="K13">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>6</v>
       </c>
-      <c r="B14">
-        <v>3.4849999999999999</v>
+      <c r="B14" s="1">
+        <v>3485</v>
       </c>
       <c r="C14">
         <v>15</v>
       </c>
-      <c r="D14">
-        <v>1.3149999999999999</v>
+      <c r="D14" s="1">
+        <v>1315</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
-      <c r="F14">
-        <v>1.0900000000000001</v>
+      <c r="F14" s="1">
+        <v>1090</v>
       </c>
       <c r="G14">
         <v>10</v>
@@ -1610,19 +1654,22 @@
       <c r="J14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="K14">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>7</v>
       </c>
-      <c r="B15">
-        <v>3.9769999999999999</v>
+      <c r="B15" s="1">
+        <v>3977</v>
       </c>
       <c r="C15">
         <v>15</v>
       </c>
-      <c r="D15">
-        <v>1.194</v>
+      <c r="D15" s="1">
+        <v>1194</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1642,19 +1689,22 @@
       <c r="J15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="K15">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>7</v>
       </c>
-      <c r="B16">
-        <v>4.4189999999999996</v>
+      <c r="B16" s="1">
+        <v>4419</v>
       </c>
       <c r="C16">
         <v>34</v>
       </c>
-      <c r="D16">
-        <v>1.276</v>
+      <c r="D16" s="1">
+        <v>1276</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1674,19 +1724,22 @@
       <c r="J16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="K16">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>8</v>
       </c>
-      <c r="B17">
-        <v>2.7709999999999999</v>
+      <c r="B17" s="1">
+        <v>2771</v>
       </c>
       <c r="C17">
         <v>54</v>
       </c>
-      <c r="D17">
-        <v>1.238</v>
+      <c r="D17" s="1">
+        <v>1238</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1706,19 +1759,22 @@
       <c r="J17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="K17">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
-      <c r="B18">
-        <v>3.9729999999999999</v>
+      <c r="B18" s="1">
+        <v>3973</v>
       </c>
       <c r="C18">
         <v>39</v>
       </c>
-      <c r="D18">
-        <v>1.4430000000000001</v>
+      <c r="D18" s="1">
+        <v>1443</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1738,19 +1794,22 @@
       <c r="J18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="K18">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>9</v>
       </c>
-      <c r="B19">
-        <v>1.514</v>
+      <c r="B19" s="1">
+        <v>1514</v>
       </c>
       <c r="C19">
         <v>18</v>
       </c>
-      <c r="D19">
-        <v>1.1919999999999999</v>
+      <c r="D19" s="1">
+        <v>1192</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1770,19 +1829,22 @@
       <c r="J19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="K19">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>9</v>
       </c>
-      <c r="B20">
-        <v>2.0489999999999999</v>
+      <c r="B20" s="1">
+        <v>2049</v>
       </c>
       <c r="C20">
         <v>34</v>
       </c>
-      <c r="D20">
-        <v>1.2629999999999999</v>
+      <c r="D20" s="1">
+        <v>1263</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -1802,19 +1864,22 @@
       <c r="J20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="K20">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>10</v>
       </c>
-      <c r="B21">
-        <v>3.0710000000000002</v>
+      <c r="B21" s="1">
+        <v>3071</v>
       </c>
       <c r="C21">
         <v>10</v>
       </c>
-      <c r="D21">
-        <v>1.8460000000000001</v>
+      <c r="D21" s="1">
+        <v>1846</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1834,19 +1899,22 @@
       <c r="J21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:10">
+      <c r="K21">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>10</v>
       </c>
-      <c r="B22">
-        <v>4.9180000000000001</v>
+      <c r="B22" s="1">
+        <v>4918</v>
       </c>
       <c r="C22">
         <v>6</v>
       </c>
-      <c r="D22">
-        <v>2.1850000000000001</v>
+      <c r="D22" s="1">
+        <v>2185</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -1866,19 +1934,22 @@
       <c r="J22">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:10">
+      <c r="K22">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>11</v>
       </c>
-      <c r="B23">
-        <v>5.9470000000000001</v>
+      <c r="B23" s="1">
+        <v>5947</v>
       </c>
       <c r="C23">
         <v>59</v>
       </c>
-      <c r="D23">
-        <v>1.849</v>
+      <c r="D23" s="1">
+        <v>1849</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1898,19 +1969,22 @@
       <c r="J23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:10">
+      <c r="K23">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>11</v>
       </c>
-      <c r="B24">
-        <v>7.18</v>
+      <c r="B24" s="1">
+        <v>7180</v>
       </c>
       <c r="C24">
         <v>144</v>
       </c>
-      <c r="D24">
-        <v>2.0369999999999999</v>
+      <c r="D24" s="1">
+        <v>2037</v>
       </c>
       <c r="E24">
         <v>2</v>
@@ -1930,19 +2004,22 @@
       <c r="J24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:10">
+      <c r="K24">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>12</v>
       </c>
-      <c r="B25">
-        <v>2.2109999999999999</v>
+      <c r="B25" s="1">
+        <v>2211</v>
       </c>
       <c r="C25">
         <v>17</v>
       </c>
-      <c r="D25">
-        <v>1.123</v>
+      <c r="D25" s="1">
+        <v>1123</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1962,19 +2039,22 @@
       <c r="J25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:10">
+      <c r="K25">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>12</v>
       </c>
-      <c r="B26">
-        <v>3.6859999999999999</v>
+      <c r="B26" s="1">
+        <v>3686</v>
       </c>
       <c r="C26">
         <v>27</v>
       </c>
-      <c r="D26">
-        <v>1.4</v>
+      <c r="D26" s="1">
+        <v>1400</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -1994,19 +2074,22 @@
       <c r="J26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:10">
+      <c r="K26">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>13</v>
       </c>
-      <c r="B27">
-        <v>4.1260000000000003</v>
+      <c r="B27" s="1">
+        <v>4126</v>
       </c>
       <c r="C27">
         <v>9</v>
       </c>
-      <c r="D27">
-        <v>1.67</v>
+      <c r="D27" s="1">
+        <v>1670</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -2026,19 +2109,22 @@
       <c r="J27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:10">
+      <c r="K27">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>13</v>
       </c>
-      <c r="B28">
-        <v>8.7550000000000008</v>
+      <c r="B28" s="1">
+        <v>8755</v>
       </c>
       <c r="C28">
         <v>10</v>
       </c>
-      <c r="D28">
-        <v>2.5910000000000002</v>
+      <c r="D28" s="1">
+        <v>2591</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2058,19 +2144,22 @@
       <c r="J28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:10">
+      <c r="K28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>14</v>
       </c>
-      <c r="B29">
-        <v>3.3639999999999999</v>
+      <c r="B29" s="1">
+        <v>3364</v>
       </c>
       <c r="C29">
         <v>7</v>
       </c>
-      <c r="D29">
-        <v>1.0509999999999999</v>
+      <c r="D29" s="1">
+        <v>1051</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2090,19 +2179,22 @@
       <c r="J29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:10">
+      <c r="K29">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>14</v>
       </c>
-      <c r="B30">
-        <v>5.5949999999999998</v>
+      <c r="B30" s="1">
+        <v>5595</v>
       </c>
       <c r="C30">
         <v>6</v>
       </c>
-      <c r="D30">
-        <v>1.175</v>
+      <c r="D30" s="1">
+        <v>1175</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -2122,19 +2214,22 @@
       <c r="J30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:10">
+      <c r="K30">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>15</v>
       </c>
-      <c r="B31">
-        <v>2.2559999999999998</v>
+      <c r="B31" s="1">
+        <v>2256</v>
       </c>
       <c r="C31">
         <v>5</v>
       </c>
-      <c r="D31">
-        <v>1.2230000000000001</v>
+      <c r="D31" s="1">
+        <v>1223</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -2154,19 +2249,22 @@
       <c r="J31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:10">
+      <c r="K31">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>15</v>
       </c>
-      <c r="B32">
-        <v>3.169</v>
+      <c r="B32" s="1">
+        <v>3169</v>
       </c>
       <c r="C32">
         <v>8</v>
       </c>
-      <c r="D32">
-        <v>1.3720000000000001</v>
+      <c r="D32" s="1">
+        <v>1372</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -2186,13 +2284,16 @@
       <c r="J32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:10">
+      <c r="K32">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>16</v>
       </c>
-      <c r="B33">
-        <v>1.45</v>
+      <c r="B33" s="1">
+        <v>1450</v>
       </c>
       <c r="C33">
         <v>21</v>
@@ -2218,19 +2319,22 @@
       <c r="J33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:10">
+      <c r="K33">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>16</v>
       </c>
-      <c r="B34">
-        <v>1.8240000000000001</v>
+      <c r="B34" s="1">
+        <v>1824</v>
       </c>
       <c r="C34">
         <v>33</v>
       </c>
-      <c r="D34">
-        <v>1.109</v>
+      <c r="D34" s="1">
+        <v>1109</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2250,8 +2354,11 @@
       <c r="J34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:10">
+      <c r="K34">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>17</v>
       </c>
@@ -2282,8 +2389,11 @@
       <c r="J35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:10">
+      <c r="K35">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>17</v>
       </c>
@@ -2314,8 +2424,11 @@
       <c r="J36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:10">
+      <c r="K36">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>18</v>
       </c>
@@ -2346,13 +2459,16 @@
       <c r="J37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:10">
+      <c r="K37">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>18</v>
       </c>
-      <c r="B38">
-        <v>1.1499999999999999</v>
+      <c r="B38" s="1">
+        <v>1150</v>
       </c>
       <c r="C38">
         <v>27</v>
@@ -2378,13 +2494,16 @@
       <c r="J38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:10">
+      <c r="K38">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>19</v>
       </c>
-      <c r="B39">
-        <v>1.2649999999999999</v>
+      <c r="B39" s="1">
+        <v>1265</v>
       </c>
       <c r="C39">
         <v>6</v>
@@ -2410,13 +2529,16 @@
       <c r="J39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:10">
+      <c r="K39">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>19</v>
       </c>
-      <c r="B40">
-        <v>1.4119999999999999</v>
+      <c r="B40" s="1">
+        <v>1412</v>
       </c>
       <c r="C40">
         <v>19</v>
@@ -2442,19 +2564,22 @@
       <c r="J40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:10">
+      <c r="K40">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>20</v>
       </c>
-      <c r="B41">
-        <v>1.1180000000000001</v>
+      <c r="B41" s="1">
+        <v>1118</v>
       </c>
       <c r="C41">
         <v>9</v>
       </c>
-      <c r="D41">
-        <v>1.286</v>
+      <c r="D41" s="1">
+        <v>1286</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -2474,19 +2599,22 @@
       <c r="J41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:10">
+      <c r="K41">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>20</v>
       </c>
-      <c r="B42">
-        <v>1.4079999999999999</v>
+      <c r="B42" s="1">
+        <v>1408</v>
       </c>
       <c r="C42">
         <v>19</v>
       </c>
-      <c r="D42">
-        <v>1.2050000000000001</v>
+      <c r="D42" s="1">
+        <v>1205</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2506,19 +2634,22 @@
       <c r="J42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:10">
+      <c r="K42">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>21</v>
       </c>
-      <c r="B43">
-        <v>1.554</v>
+      <c r="B43" s="1">
+        <v>1554</v>
       </c>
       <c r="C43">
         <v>15</v>
       </c>
-      <c r="D43">
-        <v>1.26</v>
+      <c r="D43" s="1">
+        <v>1260</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2538,19 +2669,22 @@
       <c r="J43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:10">
+      <c r="K43">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>21</v>
       </c>
-      <c r="B44">
-        <v>2.0939999999999999</v>
+      <c r="B44" s="1">
+        <v>2094</v>
       </c>
       <c r="C44">
         <v>34</v>
       </c>
-      <c r="D44">
-        <v>1.2789999999999999</v>
+      <c r="D44" s="1">
+        <v>1279</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2570,19 +2704,22 @@
       <c r="J44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:10">
+      <c r="K44">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>22</v>
       </c>
-      <c r="B45">
-        <v>4.6280000000000001</v>
+      <c r="B45" s="1">
+        <v>4628</v>
       </c>
       <c r="C45">
         <v>8</v>
       </c>
-      <c r="D45">
-        <v>1.643</v>
+      <c r="D45" s="1">
+        <v>1643</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2602,19 +2739,22 @@
       <c r="J45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:10">
+      <c r="K45">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>22</v>
       </c>
-      <c r="B46">
-        <v>7.9240000000000004</v>
+      <c r="B46" s="1">
+        <v>7924</v>
       </c>
       <c r="C46">
         <v>9</v>
       </c>
-      <c r="D46">
-        <v>2.0659999999999998</v>
+      <c r="D46" s="1">
+        <v>2066</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2634,19 +2774,22 @@
       <c r="J46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:10">
+      <c r="K46">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>23</v>
       </c>
-      <c r="B47">
-        <v>1.3919999999999999</v>
+      <c r="B47" s="1">
+        <v>1392</v>
       </c>
       <c r="C47">
         <v>9</v>
       </c>
-      <c r="D47">
-        <v>1.0960000000000001</v>
+      <c r="D47" s="1">
+        <v>1096</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -2666,19 +2809,22 @@
       <c r="J47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:10">
+      <c r="K47">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>23</v>
       </c>
-      <c r="B48">
-        <v>1.75</v>
+      <c r="B48" s="1">
+        <v>1750</v>
       </c>
       <c r="C48">
         <v>14</v>
       </c>
-      <c r="D48">
-        <v>1.0780000000000001</v>
+      <c r="D48" s="1">
+        <v>1078</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2698,8 +2844,11 @@
       <c r="J48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:10">
+      <c r="K48">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>24</v>
       </c>
@@ -2709,8 +2858,8 @@
       <c r="C49">
         <v>18</v>
       </c>
-      <c r="D49">
-        <v>1.2030000000000001</v>
+      <c r="D49" s="1">
+        <v>1203</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -2730,19 +2879,22 @@
       <c r="J49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:10">
+      <c r="K49">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>24</v>
       </c>
-      <c r="B50">
-        <v>1.0900000000000001</v>
+      <c r="B50" s="1">
+        <v>1090</v>
       </c>
       <c r="C50">
         <v>26</v>
       </c>
-      <c r="D50">
-        <v>1.19</v>
+      <c r="D50" s="1">
+        <v>1190</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -2762,8 +2914,11 @@
       <c r="J50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:10">
+      <c r="K50">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>25</v>
       </c>
@@ -2794,8 +2949,11 @@
       <c r="J51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:10">
+      <c r="K51">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>25</v>
       </c>
@@ -2826,19 +2984,22 @@
       <c r="J52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:10">
+      <c r="K52">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>26</v>
       </c>
-      <c r="B53">
-        <v>1.5840000000000001</v>
+      <c r="B53" s="1">
+        <v>1584</v>
       </c>
       <c r="C53">
         <v>10</v>
       </c>
-      <c r="D53">
-        <v>1.105</v>
+      <c r="D53" s="1">
+        <v>1105</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -2858,13 +3019,16 @@
       <c r="J53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:10">
+      <c r="K53">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>26</v>
       </c>
-      <c r="B54">
-        <v>2.1930000000000001</v>
+      <c r="B54" s="1">
+        <v>2193</v>
       </c>
       <c r="C54">
         <v>10</v>
@@ -2890,19 +3054,22 @@
       <c r="J54">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:10">
+      <c r="K54">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>27</v>
       </c>
-      <c r="B55">
-        <v>1.468</v>
+      <c r="B55" s="1">
+        <v>1468</v>
       </c>
       <c r="C55">
         <v>37</v>
       </c>
-      <c r="D55">
-        <v>1.034</v>
+      <c r="D55" s="1">
+        <v>1034</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -2922,19 +3089,22 @@
       <c r="J55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:10">
+      <c r="K55">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>27</v>
       </c>
-      <c r="B56">
-        <v>1.5449999999999999</v>
+      <c r="B56" s="1">
+        <v>1545</v>
       </c>
       <c r="C56">
         <v>48</v>
       </c>
-      <c r="D56">
-        <v>1.24</v>
+      <c r="D56" s="1">
+        <v>1240</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -2954,8 +3124,11 @@
       <c r="J56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:10">
+      <c r="K56">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>28</v>
       </c>
@@ -2986,8 +3159,11 @@
       <c r="J57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:10">
+      <c r="K57">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>28</v>
       </c>
@@ -3018,13 +3194,16 @@
       <c r="J58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:10">
+      <c r="K58">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>29</v>
       </c>
-      <c r="B59">
-        <v>1.873</v>
+      <c r="B59" s="1">
+        <v>1873</v>
       </c>
       <c r="C59">
         <v>5</v>
@@ -3050,13 +3229,16 @@
       <c r="J59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:10">
+      <c r="K59">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>29</v>
       </c>
-      <c r="B60">
-        <v>2.6520000000000001</v>
+      <c r="B60" s="1">
+        <v>2652</v>
       </c>
       <c r="C60">
         <v>12</v>
@@ -3067,8 +3249,8 @@
       <c r="E60">
         <v>0</v>
       </c>
-      <c r="F60">
-        <v>1.0529999999999999</v>
+      <c r="F60" s="1">
+        <v>1053</v>
       </c>
       <c r="G60">
         <v>7</v>
@@ -3082,8 +3264,11 @@
       <c r="J60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:10">
+      <c r="K60">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>30</v>
       </c>
@@ -3114,8 +3299,11 @@
       <c r="J61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:10">
+      <c r="K61">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>30</v>
       </c>
@@ -3146,19 +3334,22 @@
       <c r="J62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:10">
+      <c r="K62">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>31</v>
       </c>
-      <c r="B63">
-        <v>1.1519999999999999</v>
+      <c r="B63" s="1">
+        <v>1152</v>
       </c>
       <c r="C63">
         <v>7</v>
       </c>
-      <c r="D63">
-        <v>1.2669999999999999</v>
+      <c r="D63" s="1">
+        <v>1267</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -3178,19 +3369,22 @@
       <c r="J63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:10">
+      <c r="K63">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>31</v>
       </c>
-      <c r="B64">
-        <v>1.367</v>
+      <c r="B64" s="1">
+        <v>1367</v>
       </c>
       <c r="C64">
         <v>11</v>
       </c>
-      <c r="D64">
-        <v>1.2490000000000001</v>
+      <c r="D64" s="1">
+        <v>1249</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -3210,8 +3404,11 @@
       <c r="J64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:10">
+      <c r="K64">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>32</v>
       </c>
@@ -3242,8 +3439,11 @@
       <c r="J65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:10">
+      <c r="K65">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>32</v>
       </c>
@@ -3274,19 +3474,22 @@
       <c r="J66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:10">
+      <c r="K66">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>33</v>
       </c>
-      <c r="B67">
-        <v>1.3759999999999999</v>
+      <c r="B67" s="1">
+        <v>1376</v>
       </c>
       <c r="C67">
         <v>13</v>
       </c>
-      <c r="D67">
-        <v>1.2110000000000001</v>
+      <c r="D67" s="1">
+        <v>1211</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -3306,19 +3509,22 @@
       <c r="J67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:10">
+      <c r="K67">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>33</v>
       </c>
-      <c r="B68">
-        <v>2.258</v>
+      <c r="B68" s="1">
+        <v>2258</v>
       </c>
       <c r="C68">
         <v>29</v>
       </c>
-      <c r="D68">
-        <v>1.349</v>
+      <c r="D68" s="1">
+        <v>1349</v>
       </c>
       <c r="E68">
         <v>1</v>
@@ -3338,19 +3544,22 @@
       <c r="J68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:10">
+      <c r="K68">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>34</v>
       </c>
-      <c r="B69">
-        <v>1.655</v>
+      <c r="B69" s="1">
+        <v>1655</v>
       </c>
       <c r="C69">
         <v>17</v>
       </c>
-      <c r="D69">
-        <v>1.796</v>
+      <c r="D69" s="1">
+        <v>1796</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -3370,19 +3579,22 @@
       <c r="J69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:10">
+      <c r="K69">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>34</v>
       </c>
-      <c r="B70">
-        <v>2.234</v>
+      <c r="B70" s="1">
+        <v>2234</v>
       </c>
       <c r="C70">
         <v>10</v>
       </c>
-      <c r="D70">
-        <v>1.744</v>
+      <c r="D70" s="1">
+        <v>1744</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -3402,13 +3614,16 @@
       <c r="J70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:10">
+      <c r="K70">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>35</v>
       </c>
-      <c r="B71">
-        <v>3.6459999999999999</v>
+      <c r="B71" s="1">
+        <v>3646</v>
       </c>
       <c r="C71">
         <v>2</v>
@@ -3434,19 +3649,22 @@
       <c r="J71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:10">
+      <c r="K71">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>35</v>
       </c>
-      <c r="B72">
-        <v>4.3440000000000003</v>
+      <c r="B72" s="1">
+        <v>4344</v>
       </c>
       <c r="C72">
         <v>1</v>
       </c>
-      <c r="D72">
-        <v>1.1599999999999999</v>
+      <c r="D72" s="1">
+        <v>1160</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -3466,19 +3684,22 @@
       <c r="J72">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:10">
+      <c r="K72">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>36</v>
       </c>
-      <c r="B73">
-        <v>2.2530000000000001</v>
+      <c r="B73" s="1">
+        <v>2253</v>
       </c>
       <c r="C73">
         <v>123</v>
       </c>
-      <c r="D73">
-        <v>3.4670000000000001</v>
+      <c r="D73" s="1">
+        <v>3467</v>
       </c>
       <c r="E73">
         <v>3</v>
@@ -3498,19 +3719,22 @@
       <c r="J73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:10">
+      <c r="K73">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>36</v>
       </c>
-      <c r="B74">
-        <v>2.6509999999999998</v>
+      <c r="B74" s="1">
+        <v>2651</v>
       </c>
       <c r="C74">
         <v>120</v>
       </c>
-      <c r="D74">
-        <v>3.3580000000000001</v>
+      <c r="D74" s="1">
+        <v>3358</v>
       </c>
       <c r="E74">
         <v>1</v>
@@ -3530,13 +3754,16 @@
       <c r="J74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:10">
+      <c r="K74">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>37</v>
       </c>
-      <c r="B75">
-        <v>1.232</v>
+      <c r="B75" s="1">
+        <v>1232</v>
       </c>
       <c r="C75">
         <v>25</v>
@@ -3562,19 +3789,22 @@
       <c r="J75">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:10">
+      <c r="K75">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>37</v>
       </c>
-      <c r="B76">
-        <v>1.248</v>
+      <c r="B76" s="1">
+        <v>1248</v>
       </c>
       <c r="C76">
         <v>10</v>
       </c>
-      <c r="D76">
-        <v>1.1040000000000001</v>
+      <c r="D76" s="1">
+        <v>1104</v>
       </c>
       <c r="E76">
         <v>2</v>
@@ -3594,19 +3824,22 @@
       <c r="J76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:10">
+      <c r="K76">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>38</v>
       </c>
-      <c r="B77">
-        <v>1.42</v>
+      <c r="B77" s="1">
+        <v>1420</v>
       </c>
       <c r="C77">
         <v>16</v>
       </c>
-      <c r="D77">
-        <v>1.0760000000000001</v>
+      <c r="D77" s="1">
+        <v>1076</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -3626,19 +3859,22 @@
       <c r="J77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:10">
+      <c r="K77">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>38</v>
       </c>
-      <c r="B78">
-        <v>1.869</v>
+      <c r="B78" s="1">
+        <v>1869</v>
       </c>
       <c r="C78">
         <v>10</v>
       </c>
-      <c r="D78">
-        <v>1.1779999999999999</v>
+      <c r="D78" s="1">
+        <v>1178</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -3658,13 +3894,16 @@
       <c r="J78">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:10">
+      <c r="K78">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>39</v>
       </c>
-      <c r="B79">
-        <v>1.0760000000000001</v>
+      <c r="B79" s="1">
+        <v>1076</v>
       </c>
       <c r="C79">
         <v>31</v>
@@ -3690,13 +3929,16 @@
       <c r="J79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:10">
+      <c r="K79">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>39</v>
       </c>
-      <c r="B80">
-        <v>1.2629999999999999</v>
+      <c r="B80" s="1">
+        <v>1263</v>
       </c>
       <c r="C80">
         <v>45</v>
@@ -3722,19 +3964,22 @@
       <c r="J80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:10">
+      <c r="K80">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>40</v>
       </c>
-      <c r="B81">
-        <v>1.0469999999999999</v>
+      <c r="B81" s="1">
+        <v>1047</v>
       </c>
       <c r="C81">
         <v>28</v>
       </c>
-      <c r="D81">
-        <v>1.4410000000000001</v>
+      <c r="D81" s="1">
+        <v>1441</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -3754,19 +3999,22 @@
       <c r="J81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:10">
+      <c r="K81">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>40</v>
       </c>
-      <c r="B82">
-        <v>1.5169999999999999</v>
+      <c r="B82" s="1">
+        <v>1517</v>
       </c>
       <c r="C82">
         <v>30</v>
       </c>
-      <c r="D82">
-        <v>1.5089999999999999</v>
+      <c r="D82" s="1">
+        <v>1509</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -3786,8 +4034,11 @@
       <c r="J82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:10">
+      <c r="K82">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>41</v>
       </c>
@@ -3818,8 +4069,11 @@
       <c r="J83">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:10">
+      <c r="K83">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>41</v>
       </c>
@@ -3829,8 +4083,8 @@
       <c r="C84">
         <v>12</v>
       </c>
-      <c r="D84">
-        <v>1.0589999999999999</v>
+      <c r="D84" s="1">
+        <v>1059</v>
       </c>
       <c r="E84">
         <v>1</v>
@@ -3850,8 +4104,11 @@
       <c r="J84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:10">
+      <c r="K84">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>42</v>
       </c>
@@ -3861,8 +4118,8 @@
       <c r="C85">
         <v>7</v>
       </c>
-      <c r="D85">
-        <v>1.607</v>
+      <c r="D85" s="1">
+        <v>1607</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -3882,8 +4139,11 @@
       <c r="J85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:10">
+      <c r="K85">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>42</v>
       </c>
@@ -3893,8 +4153,8 @@
       <c r="C86">
         <v>5</v>
       </c>
-      <c r="D86">
-        <v>1.159</v>
+      <c r="D86" s="1">
+        <v>1159</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -3914,19 +4174,22 @@
       <c r="J86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:10">
+      <c r="K86">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>43</v>
       </c>
-      <c r="B87">
-        <v>1.2989999999999999</v>
+      <c r="B87" s="1">
+        <v>1299</v>
       </c>
       <c r="C87">
         <v>73</v>
       </c>
-      <c r="D87">
-        <v>1.9490000000000001</v>
+      <c r="D87" s="1">
+        <v>1949</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -3946,19 +4209,22 @@
       <c r="J87">
         <v>2</v>
       </c>
-    </row>
-    <row r="88" spans="1:10">
+      <c r="K87">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>43</v>
       </c>
-      <c r="B88">
-        <v>1.7030000000000001</v>
+      <c r="B88" s="1">
+        <v>1703</v>
       </c>
       <c r="C88">
         <v>44</v>
       </c>
-      <c r="D88">
-        <v>1.806</v>
+      <c r="D88" s="1">
+        <v>1806</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -3978,8 +4244,11 @@
       <c r="J88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:10">
+      <c r="K88">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>44</v>
       </c>
@@ -4010,8 +4279,11 @@
       <c r="J89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:10">
+      <c r="K89">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>44</v>
       </c>
@@ -4042,19 +4314,22 @@
       <c r="J90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:10">
+      <c r="K90">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>45</v>
       </c>
-      <c r="B91">
-        <v>1.3109999999999999</v>
+      <c r="B91" s="1">
+        <v>1311</v>
       </c>
       <c r="C91">
         <v>141</v>
       </c>
-      <c r="D91">
-        <v>1.431</v>
+      <c r="D91" s="1">
+        <v>1431</v>
       </c>
       <c r="E91">
         <v>2</v>
@@ -4074,19 +4349,22 @@
       <c r="J91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:10">
+      <c r="K91">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>45</v>
       </c>
-      <c r="B92">
-        <v>1.391</v>
+      <c r="B92" s="1">
+        <v>1391</v>
       </c>
       <c r="C92">
         <v>303</v>
       </c>
-      <c r="D92">
-        <v>1.623</v>
+      <c r="D92" s="1">
+        <v>1623</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -4106,19 +4384,22 @@
       <c r="J92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:10">
+      <c r="K92">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>46</v>
       </c>
-      <c r="B93">
-        <v>1.8779999999999999</v>
+      <c r="B93" s="1">
+        <v>1878</v>
       </c>
       <c r="C93">
         <v>139</v>
       </c>
-      <c r="D93">
-        <v>4.3140000000000001</v>
+      <c r="D93" s="1">
+        <v>4314</v>
       </c>
       <c r="E93">
         <v>5</v>
@@ -4138,19 +4419,22 @@
       <c r="J93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:10">
+      <c r="K93">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>46</v>
       </c>
-      <c r="B94">
-        <v>1.8460000000000001</v>
+      <c r="B94" s="1">
+        <v>1846</v>
       </c>
       <c r="C94">
         <v>246</v>
       </c>
-      <c r="D94">
-        <v>4.0609999999999999</v>
+      <c r="D94" s="1">
+        <v>4061</v>
       </c>
       <c r="E94">
         <v>3</v>
@@ -4170,8 +4454,11 @@
       <c r="J94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:10">
+      <c r="K94">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>47</v>
       </c>
@@ -4181,8 +4468,8 @@
       <c r="C95">
         <v>10</v>
       </c>
-      <c r="D95">
-        <v>1.073</v>
+      <c r="D95" s="1">
+        <v>1073</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -4202,19 +4489,22 @@
       <c r="J95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:10">
+      <c r="K95">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>47</v>
       </c>
-      <c r="B96">
-        <v>1.698</v>
+      <c r="B96" s="1">
+        <v>1698</v>
       </c>
       <c r="C96">
         <v>10</v>
       </c>
-      <c r="D96">
-        <v>1.014</v>
+      <c r="D96" s="1">
+        <v>1014</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -4234,19 +4524,22 @@
       <c r="J96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:10">
+      <c r="K96">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>48</v>
       </c>
-      <c r="B97">
-        <v>2.1949999999999998</v>
+      <c r="B97" s="1">
+        <v>2195</v>
       </c>
       <c r="C97">
         <v>104</v>
       </c>
-      <c r="D97">
-        <v>2.3639999999999999</v>
+      <c r="D97" s="1">
+        <v>2364</v>
       </c>
       <c r="E97">
         <v>2</v>
@@ -4266,19 +4559,22 @@
       <c r="J97">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:10">
+      <c r="K97">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>48</v>
       </c>
-      <c r="B98">
-        <v>2.6520000000000001</v>
+      <c r="B98" s="1">
+        <v>2652</v>
       </c>
       <c r="C98">
         <v>135</v>
       </c>
-      <c r="D98">
-        <v>2.6360000000000001</v>
+      <c r="D98" s="1">
+        <v>2636</v>
       </c>
       <c r="E98">
         <v>4</v>
@@ -4298,19 +4594,22 @@
       <c r="J98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:10">
+      <c r="K98">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>49</v>
       </c>
-      <c r="B99">
-        <v>2.0779999999999998</v>
+      <c r="B99" s="1">
+        <v>2078</v>
       </c>
       <c r="C99">
         <v>18</v>
       </c>
-      <c r="D99">
-        <v>2.6230000000000002</v>
+      <c r="D99" s="1">
+        <v>2623</v>
       </c>
       <c r="E99">
         <v>0</v>
@@ -4330,19 +4629,22 @@
       <c r="J99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:10">
+      <c r="K99">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>49</v>
       </c>
-      <c r="B100">
-        <v>2.78</v>
+      <c r="B100" s="1">
+        <v>2780</v>
       </c>
       <c r="C100">
         <v>13</v>
       </c>
-      <c r="D100">
-        <v>2.9359999999999999</v>
+      <c r="D100" s="1">
+        <v>2936</v>
       </c>
       <c r="E100">
         <v>1</v>
@@ -4362,19 +4664,22 @@
       <c r="J100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:10">
+      <c r="K100">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>50</v>
       </c>
-      <c r="B101">
-        <v>1.2649999999999999</v>
+      <c r="B101" s="1">
+        <v>1265</v>
       </c>
       <c r="C101">
         <v>27</v>
       </c>
-      <c r="D101">
-        <v>1.0469999999999999</v>
+      <c r="D101" s="1">
+        <v>1047</v>
       </c>
       <c r="E101">
         <v>2</v>
@@ -4394,19 +4699,22 @@
       <c r="J101">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:10">
+      <c r="K101">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>50</v>
       </c>
-      <c r="B102">
-        <v>1.724</v>
+      <c r="B102" s="1">
+        <v>1724</v>
       </c>
       <c r="C102">
         <v>26</v>
       </c>
-      <c r="D102">
-        <v>1.446</v>
+      <c r="D102" s="1">
+        <v>1446</v>
       </c>
       <c r="E102">
         <v>3</v>
@@ -4426,13 +4734,16 @@
       <c r="J102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:10">
+      <c r="K102">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>51</v>
       </c>
-      <c r="B103">
-        <v>1.6060000000000001</v>
+      <c r="B103" s="1">
+        <v>1606</v>
       </c>
       <c r="C103">
         <v>9</v>
@@ -4458,13 +4769,16 @@
       <c r="J103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:10">
+      <c r="K103">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>51</v>
       </c>
-      <c r="B104">
-        <v>2.2509999999999999</v>
+      <c r="B104" s="1">
+        <v>2251</v>
       </c>
       <c r="C104">
         <v>22</v>
@@ -4490,8 +4804,11 @@
       <c r="J104">
         <v>1</v>
       </c>
-    </row>
-    <row r="105" spans="1:10">
+      <c r="K104">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>52</v>
       </c>
@@ -4501,8 +4818,8 @@
       <c r="C105">
         <v>71</v>
       </c>
-      <c r="D105">
-        <v>1.38</v>
+      <c r="D105" s="1">
+        <v>1380</v>
       </c>
       <c r="E105">
         <v>0</v>
@@ -4522,19 +4839,22 @@
       <c r="J105">
         <v>1</v>
       </c>
-    </row>
-    <row r="106" spans="1:10">
+      <c r="K105">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>52</v>
       </c>
-      <c r="B106">
-        <v>1.325</v>
+      <c r="B106" s="1">
+        <v>1325</v>
       </c>
       <c r="C106">
         <v>43</v>
       </c>
-      <c r="D106">
-        <v>1.2849999999999999</v>
+      <c r="D106" s="1">
+        <v>1285</v>
       </c>
       <c r="E106">
         <v>1</v>
@@ -4554,19 +4874,22 @@
       <c r="J106">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:10">
+      <c r="K106">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>53</v>
       </c>
-      <c r="B107">
-        <v>1.125</v>
+      <c r="B107" s="1">
+        <v>1125</v>
       </c>
       <c r="C107">
         <v>110</v>
       </c>
-      <c r="D107">
-        <v>1.575</v>
+      <c r="D107" s="1">
+        <v>1575</v>
       </c>
       <c r="E107">
         <v>1</v>
@@ -4586,19 +4909,22 @@
       <c r="J107">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:10">
+      <c r="K107">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>53</v>
       </c>
-      <c r="B108">
-        <v>1.1759999999999999</v>
+      <c r="B108" s="1">
+        <v>1176</v>
       </c>
       <c r="C108">
         <v>77</v>
       </c>
-      <c r="D108">
-        <v>1.46</v>
+      <c r="D108" s="1">
+        <v>1460</v>
       </c>
       <c r="E108">
         <v>2</v>
@@ -4618,8 +4944,11 @@
       <c r="J108">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:10">
+      <c r="K108">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>54</v>
       </c>
@@ -4650,19 +4979,22 @@
       <c r="J109">
         <v>1</v>
       </c>
-    </row>
-    <row r="110" spans="1:10">
+      <c r="K109">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>54</v>
       </c>
-      <c r="B110">
-        <v>1.139</v>
+      <c r="B110" s="1">
+        <v>1139</v>
       </c>
       <c r="C110">
         <v>28</v>
       </c>
-      <c r="D110">
-        <v>1.2450000000000001</v>
+      <c r="D110" s="1">
+        <v>1245</v>
       </c>
       <c r="E110">
         <v>1</v>
@@ -4682,8 +5014,11 @@
       <c r="J110">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:10">
+      <c r="K110">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>55</v>
       </c>
@@ -4714,19 +5049,22 @@
       <c r="J111">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:10">
+      <c r="K111">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>55</v>
       </c>
-      <c r="B112">
-        <v>1.4550000000000001</v>
+      <c r="B112" s="1">
+        <v>1455</v>
       </c>
       <c r="C112">
         <v>28</v>
       </c>
-      <c r="D112">
-        <v>1.181</v>
+      <c r="D112" s="1">
+        <v>1181</v>
       </c>
       <c r="E112">
         <v>0</v>
@@ -4746,8 +5084,11 @@
       <c r="J112">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:10">
+      <c r="K112">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>56</v>
       </c>
@@ -4778,8 +5119,11 @@
       <c r="J113">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:10">
+      <c r="K113">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>56</v>
       </c>
@@ -4810,8 +5154,11 @@
       <c r="J114">
         <v>1</v>
       </c>
-    </row>
-    <row r="115" spans="1:10">
+      <c r="K114">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>57</v>
       </c>
@@ -4842,8 +5189,11 @@
       <c r="J115">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:10">
+      <c r="K115">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>57</v>
       </c>
@@ -4874,8 +5224,11 @@
       <c r="J116">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:10">
+      <c r="K116">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>58</v>
       </c>
@@ -4906,8 +5259,11 @@
       <c r="J117">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:10">
+      <c r="K117">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>58</v>
       </c>
@@ -4917,8 +5273,8 @@
       <c r="C118">
         <v>25</v>
       </c>
-      <c r="D118">
-        <v>1.113</v>
+      <c r="D118" s="1">
+        <v>1113</v>
       </c>
       <c r="E118">
         <v>0</v>
@@ -4938,19 +5294,22 @@
       <c r="J118">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:10">
+      <c r="K118">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>59</v>
       </c>
-      <c r="B119">
-        <v>1.339</v>
+      <c r="B119" s="1">
+        <v>1339</v>
       </c>
       <c r="C119">
         <v>18</v>
       </c>
-      <c r="D119">
-        <v>1.0509999999999999</v>
+      <c r="D119" s="1">
+        <v>1051</v>
       </c>
       <c r="E119">
         <v>0</v>
@@ -4970,19 +5329,22 @@
       <c r="J119">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:10">
+      <c r="K119">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>59</v>
       </c>
-      <c r="B120">
-        <v>1.5880000000000001</v>
+      <c r="B120" s="1">
+        <v>1588</v>
       </c>
       <c r="C120">
         <v>17</v>
       </c>
-      <c r="D120">
-        <v>1.1080000000000001</v>
+      <c r="D120" s="1">
+        <v>1108</v>
       </c>
       <c r="E120">
         <v>0</v>
@@ -5002,19 +5364,22 @@
       <c r="J120">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:10">
+      <c r="K120">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>60</v>
       </c>
-      <c r="B121">
-        <v>1.383</v>
+      <c r="B121" s="1">
+        <v>1383</v>
       </c>
       <c r="C121">
         <v>14</v>
       </c>
-      <c r="D121">
-        <v>1.42</v>
+      <c r="D121" s="1">
+        <v>1420</v>
       </c>
       <c r="E121">
         <v>1</v>
@@ -5034,19 +5399,22 @@
       <c r="J121">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:10">
+      <c r="K121">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>60</v>
       </c>
-      <c r="B122">
-        <v>1.669</v>
+      <c r="B122" s="1">
+        <v>1669</v>
       </c>
       <c r="C122">
         <v>33</v>
       </c>
-      <c r="D122">
-        <v>1.3360000000000001</v>
+      <c r="D122" s="1">
+        <v>1336</v>
       </c>
       <c r="E122">
         <v>0</v>
@@ -5066,19 +5434,22 @@
       <c r="J122">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:10">
+      <c r="K122">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>61</v>
       </c>
-      <c r="B123">
-        <v>1.7949999999999999</v>
+      <c r="B123" s="1">
+        <v>1795</v>
       </c>
       <c r="C123">
         <v>14</v>
       </c>
-      <c r="D123">
-        <v>1.5840000000000001</v>
+      <c r="D123" s="1">
+        <v>1584</v>
       </c>
       <c r="E123">
         <v>1</v>
@@ -5098,19 +5469,22 @@
       <c r="J123">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:10">
+      <c r="K123">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>61</v>
       </c>
-      <c r="B124">
-        <v>2.3889999999999998</v>
+      <c r="B124" s="1">
+        <v>2389</v>
       </c>
       <c r="C124">
         <v>13</v>
       </c>
-      <c r="D124">
-        <v>1.544</v>
+      <c r="D124" s="1">
+        <v>1544</v>
       </c>
       <c r="E124">
         <v>0</v>
@@ -5130,13 +5504,16 @@
       <c r="J124">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:10">
+      <c r="K124">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>62</v>
       </c>
-      <c r="B125">
-        <v>1.7450000000000001</v>
+      <c r="B125" s="1">
+        <v>1745</v>
       </c>
       <c r="C125">
         <v>5</v>
@@ -5162,19 +5539,22 @@
       <c r="J125">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:10">
+      <c r="K125">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>62</v>
       </c>
-      <c r="B126">
-        <v>2.5859999999999999</v>
+      <c r="B126" s="1">
+        <v>2586</v>
       </c>
       <c r="C126">
         <v>3</v>
       </c>
-      <c r="D126">
-        <v>1.091</v>
+      <c r="D126" s="1">
+        <v>1091</v>
       </c>
       <c r="E126">
         <v>1</v>
@@ -5194,19 +5574,22 @@
       <c r="J126">
         <v>1</v>
       </c>
-    </row>
-    <row r="127" spans="1:10">
+      <c r="K126">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>63</v>
       </c>
-      <c r="B127">
-        <v>1.2330000000000001</v>
+      <c r="B127" s="1">
+        <v>1233</v>
       </c>
       <c r="C127">
         <v>15</v>
       </c>
-      <c r="D127">
-        <v>1.2689999999999999</v>
+      <c r="D127" s="1">
+        <v>1269</v>
       </c>
       <c r="E127">
         <v>0</v>
@@ -5226,19 +5609,22 @@
       <c r="J127">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:10">
+      <c r="K127">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>63</v>
       </c>
-      <c r="B128">
-        <v>1.5960000000000001</v>
+      <c r="B128" s="1">
+        <v>1596</v>
       </c>
       <c r="C128">
         <v>19</v>
       </c>
-      <c r="D128">
-        <v>1.514</v>
+      <c r="D128" s="1">
+        <v>1514</v>
       </c>
       <c r="E128">
         <v>1</v>
@@ -5258,8 +5644,11 @@
       <c r="J128">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:10">
+      <c r="K128">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>64</v>
       </c>
@@ -5269,8 +5658,8 @@
       <c r="C129">
         <v>24</v>
       </c>
-      <c r="D129">
-        <v>1.022</v>
+      <c r="D129" s="1">
+        <v>1022</v>
       </c>
       <c r="E129">
         <v>1</v>
@@ -5290,19 +5679,22 @@
       <c r="J129">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:10">
+      <c r="K129">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>64</v>
       </c>
-      <c r="B130">
-        <v>1.0129999999999999</v>
+      <c r="B130" s="1">
+        <v>1013</v>
       </c>
       <c r="C130">
         <v>15</v>
       </c>
-      <c r="D130">
-        <v>1.1180000000000001</v>
+      <c r="D130" s="1">
+        <v>1118</v>
       </c>
       <c r="E130">
         <v>0</v>
@@ -5322,19 +5714,22 @@
       <c r="J130">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:10">
+      <c r="K130">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>65</v>
       </c>
-      <c r="B131">
-        <v>1.0860000000000001</v>
+      <c r="B131" s="1">
+        <v>1086</v>
       </c>
       <c r="C131">
         <v>7</v>
       </c>
-      <c r="D131">
-        <v>1.4039999999999999</v>
+      <c r="D131" s="1">
+        <v>1404</v>
       </c>
       <c r="E131">
         <v>1</v>
@@ -5354,19 +5749,22 @@
       <c r="J131">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:10">
+      <c r="K131">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>65</v>
       </c>
-      <c r="B132">
-        <v>1.202</v>
+      <c r="B132" s="1">
+        <v>1202</v>
       </c>
       <c r="C132">
         <v>16</v>
       </c>
-      <c r="D132">
-        <v>1.641</v>
+      <c r="D132" s="1">
+        <v>1641</v>
       </c>
       <c r="E132">
         <v>0</v>
@@ -5386,19 +5784,22 @@
       <c r="J132">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:10">
+      <c r="K132">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>66</v>
       </c>
-      <c r="B133">
-        <v>1.26</v>
+      <c r="B133" s="1">
+        <v>1260</v>
       </c>
       <c r="C133">
         <v>31</v>
       </c>
-      <c r="D133">
-        <v>1.363</v>
+      <c r="D133" s="1">
+        <v>1363</v>
       </c>
       <c r="E133">
         <v>0</v>
@@ -5418,19 +5819,22 @@
       <c r="J133">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:10">
+      <c r="K133">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>66</v>
       </c>
-      <c r="B134">
-        <v>1.925</v>
+      <c r="B134" s="1">
+        <v>1925</v>
       </c>
       <c r="C134">
         <v>39</v>
       </c>
-      <c r="D134">
-        <v>1.716</v>
+      <c r="D134" s="1">
+        <v>1716</v>
       </c>
       <c r="E134">
         <v>1</v>
@@ -5450,8 +5854,11 @@
       <c r="J134">
         <v>2</v>
       </c>
-    </row>
-    <row r="135" spans="1:10">
+      <c r="K134">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>67</v>
       </c>
@@ -5461,8 +5868,8 @@
       <c r="C135">
         <v>43</v>
       </c>
-      <c r="D135">
-        <v>1.3089999999999999</v>
+      <c r="D135" s="1">
+        <v>1309</v>
       </c>
       <c r="E135">
         <v>2</v>
@@ -5482,19 +5889,22 @@
       <c r="J135">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:10">
+      <c r="K135">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>67</v>
       </c>
-      <c r="B136">
-        <v>1.052</v>
+      <c r="B136" s="1">
+        <v>1052</v>
       </c>
       <c r="C136">
         <v>44</v>
       </c>
-      <c r="D136">
-        <v>1.6020000000000001</v>
+      <c r="D136" s="1">
+        <v>1602</v>
       </c>
       <c r="E136">
         <v>0</v>
@@ -5514,8 +5924,11 @@
       <c r="J136">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:10">
+      <c r="K136">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>68</v>
       </c>
@@ -5546,19 +5959,22 @@
       <c r="J137">
         <v>1</v>
       </c>
-    </row>
-    <row r="138" spans="1:10">
+      <c r="K137">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>68</v>
       </c>
-      <c r="B138">
-        <v>1.2609999999999999</v>
+      <c r="B138" s="1">
+        <v>1261</v>
       </c>
       <c r="C138">
         <v>55</v>
       </c>
-      <c r="D138">
-        <v>1.375</v>
+      <c r="D138" s="1">
+        <v>1375</v>
       </c>
       <c r="E138">
         <v>1</v>
@@ -5578,19 +5994,22 @@
       <c r="J138">
         <v>1</v>
       </c>
-    </row>
-    <row r="139" spans="1:10">
+      <c r="K138">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>69</v>
       </c>
-      <c r="B139">
-        <v>1.7909999999999999</v>
+      <c r="B139" s="1">
+        <v>1791</v>
       </c>
       <c r="C139">
         <v>91</v>
       </c>
-      <c r="D139">
-        <v>1.774</v>
+      <c r="D139" s="1">
+        <v>1774</v>
       </c>
       <c r="E139">
         <v>1</v>
@@ -5610,19 +6029,22 @@
       <c r="J139">
         <v>1</v>
       </c>
-    </row>
-    <row r="140" spans="1:10">
+      <c r="K139">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>69</v>
       </c>
-      <c r="B140">
-        <v>2.0009999999999999</v>
+      <c r="B140" s="1">
+        <v>2001</v>
       </c>
       <c r="C140">
         <v>47</v>
       </c>
-      <c r="D140">
-        <v>2.032</v>
+      <c r="D140" s="1">
+        <v>2032</v>
       </c>
       <c r="E140">
         <v>2</v>
@@ -5642,19 +6064,22 @@
       <c r="J140">
         <v>1</v>
       </c>
-    </row>
-    <row r="141" spans="1:10">
+      <c r="K140">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>70</v>
       </c>
-      <c r="B141">
-        <v>1.387</v>
+      <c r="B141" s="1">
+        <v>1387</v>
       </c>
       <c r="C141">
         <v>259</v>
       </c>
-      <c r="D141">
-        <v>1.587</v>
+      <c r="D141" s="1">
+        <v>1587</v>
       </c>
       <c r="E141">
         <v>1</v>
@@ -5674,19 +6099,22 @@
       <c r="J141">
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:10">
+      <c r="K141">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>70</v>
       </c>
-      <c r="B142">
-        <v>1.5760000000000001</v>
+      <c r="B142" s="1">
+        <v>1576</v>
       </c>
       <c r="C142">
         <v>232</v>
       </c>
-      <c r="D142">
-        <v>1.9590000000000001</v>
+      <c r="D142" s="1">
+        <v>1959</v>
       </c>
       <c r="E142">
         <v>1</v>
@@ -5706,8 +6134,11 @@
       <c r="J142">
         <v>1</v>
       </c>
-    </row>
-    <row r="143" spans="1:10">
+      <c r="K142">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>71</v>
       </c>
@@ -5717,8 +6148,8 @@
       <c r="C143">
         <v>84</v>
       </c>
-      <c r="D143">
-        <v>1.4179999999999999</v>
+      <c r="D143" s="1">
+        <v>1418</v>
       </c>
       <c r="E143">
         <v>1</v>
@@ -5738,8 +6169,11 @@
       <c r="J143">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:10">
+      <c r="K143">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>71</v>
       </c>
@@ -5749,8 +6183,8 @@
       <c r="C144">
         <v>127</v>
       </c>
-      <c r="D144">
-        <v>1.464</v>
+      <c r="D144" s="1">
+        <v>1464</v>
       </c>
       <c r="E144">
         <v>0</v>
@@ -5770,19 +6204,22 @@
       <c r="J144">
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="1:10">
+      <c r="K144">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>72</v>
       </c>
-      <c r="B145">
-        <v>3.7829999999999999</v>
+      <c r="B145" s="1">
+        <v>3783</v>
       </c>
       <c r="C145">
         <v>2</v>
       </c>
-      <c r="D145">
-        <v>1.7350000000000001</v>
+      <c r="D145" s="1">
+        <v>1735</v>
       </c>
       <c r="E145">
         <v>0</v>
@@ -5802,19 +6239,22 @@
       <c r="J145">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:10">
+      <c r="K145">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>72</v>
       </c>
-      <c r="B146">
-        <v>3.5419999999999998</v>
+      <c r="B146" s="1">
+        <v>3542</v>
       </c>
       <c r="C146">
         <v>2</v>
       </c>
-      <c r="D146">
-        <v>1.8129999999999999</v>
+      <c r="D146" s="1">
+        <v>1813</v>
       </c>
       <c r="E146">
         <v>0</v>
@@ -5834,19 +6274,22 @@
       <c r="J146">
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="1:10">
+      <c r="K146">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>73</v>
       </c>
-      <c r="B147">
-        <v>6.0970000000000004</v>
+      <c r="B147" s="1">
+        <v>6097</v>
       </c>
       <c r="C147">
         <v>2</v>
       </c>
-      <c r="D147">
-        <v>1.7589999999999999</v>
+      <c r="D147" s="1">
+        <v>1759</v>
       </c>
       <c r="E147">
         <v>1</v>
@@ -5866,19 +6309,22 @@
       <c r="J147">
         <v>0</v>
       </c>
-    </row>
-    <row r="148" spans="1:10">
+      <c r="K147">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>73</v>
       </c>
-      <c r="B148">
-        <v>12.278</v>
+      <c r="B148" s="1">
+        <v>12278</v>
       </c>
       <c r="C148">
         <v>2</v>
       </c>
-      <c r="D148">
-        <v>2.2029999999999998</v>
+      <c r="D148" s="1">
+        <v>2203</v>
       </c>
       <c r="E148">
         <v>0</v>
@@ -5898,8 +6344,11 @@
       <c r="J148">
         <v>1</v>
       </c>
-    </row>
-    <row r="149" spans="1:10">
+      <c r="K148">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>74</v>
       </c>
@@ -5909,8 +6358,8 @@
       <c r="C149">
         <v>13</v>
       </c>
-      <c r="D149">
-        <v>1.613</v>
+      <c r="D149" s="1">
+        <v>1613</v>
       </c>
       <c r="E149">
         <v>0</v>
@@ -5930,19 +6379,22 @@
       <c r="J149">
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="1:10">
+      <c r="K149">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>74</v>
       </c>
-      <c r="B150">
-        <v>1.2809999999999999</v>
+      <c r="B150" s="1">
+        <v>1281</v>
       </c>
       <c r="C150">
         <v>10</v>
       </c>
-      <c r="D150">
-        <v>1.419</v>
+      <c r="D150" s="1">
+        <v>1419</v>
       </c>
       <c r="E150">
         <v>0</v>
@@ -5962,8 +6414,11 @@
       <c r="J150">
         <v>0</v>
       </c>
-    </row>
-    <row r="151" spans="1:10">
+      <c r="K150">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>75</v>
       </c>
@@ -5994,8 +6449,11 @@
       <c r="J151">
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="1:10">
+      <c r="K151">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>75</v>
       </c>
@@ -6026,8 +6484,11 @@
       <c r="J152">
         <v>0</v>
       </c>
-    </row>
-    <row r="153" spans="1:10">
+      <c r="K152">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>76</v>
       </c>
@@ -6058,8 +6519,11 @@
       <c r="J153">
         <v>0</v>
       </c>
-    </row>
-    <row r="154" spans="1:10">
+      <c r="K153">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>76</v>
       </c>
@@ -6090,19 +6554,22 @@
       <c r="J154">
         <v>1</v>
       </c>
-    </row>
-    <row r="155" spans="1:10">
+      <c r="K154">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>77</v>
       </c>
-      <c r="B155">
-        <v>1.486</v>
+      <c r="B155" s="1">
+        <v>1486</v>
       </c>
       <c r="C155">
         <v>120</v>
       </c>
-      <c r="D155">
-        <v>2.64</v>
+      <c r="D155" s="1">
+        <v>2640</v>
       </c>
       <c r="E155">
         <v>0</v>
@@ -6122,19 +6589,22 @@
       <c r="J155">
         <v>0</v>
       </c>
-    </row>
-    <row r="156" spans="1:10">
+      <c r="K155">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>77</v>
       </c>
-      <c r="B156">
-        <v>1.7170000000000001</v>
+      <c r="B156" s="1">
+        <v>1717</v>
       </c>
       <c r="C156">
         <v>141</v>
       </c>
-      <c r="D156">
-        <v>2.57</v>
+      <c r="D156" s="1">
+        <v>2570</v>
       </c>
       <c r="E156">
         <v>0</v>
@@ -6154,8 +6624,11 @@
       <c r="J156">
         <v>0</v>
       </c>
-    </row>
-    <row r="157" spans="1:10">
+      <c r="K156">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>78</v>
       </c>
@@ -6186,19 +6659,22 @@
       <c r="J157">
         <v>0</v>
       </c>
-    </row>
-    <row r="158" spans="1:10">
+      <c r="K157">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>78</v>
       </c>
-      <c r="B158">
-        <v>1.0620000000000001</v>
+      <c r="B158" s="1">
+        <v>1062</v>
       </c>
       <c r="C158">
         <v>33</v>
       </c>
-      <c r="D158">
-        <v>1.0589999999999999</v>
+      <c r="D158" s="1">
+        <v>1059</v>
       </c>
       <c r="E158">
         <v>0</v>
@@ -6218,19 +6694,22 @@
       <c r="J158">
         <v>0</v>
       </c>
-    </row>
-    <row r="159" spans="1:10">
+      <c r="K158">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>79</v>
       </c>
-      <c r="B159">
-        <v>1.3280000000000001</v>
+      <c r="B159" s="1">
+        <v>1328</v>
       </c>
       <c r="C159">
         <v>10</v>
       </c>
-      <c r="D159">
-        <v>1.341</v>
+      <c r="D159" s="1">
+        <v>1341</v>
       </c>
       <c r="E159">
         <v>0</v>
@@ -6250,19 +6729,22 @@
       <c r="J159">
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="1:10">
+      <c r="K159">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>79</v>
       </c>
-      <c r="B160">
-        <v>1.5289999999999999</v>
+      <c r="B160" s="1">
+        <v>1529</v>
       </c>
       <c r="C160">
         <v>3</v>
       </c>
-      <c r="D160">
-        <v>1.2849999999999999</v>
+      <c r="D160" s="1">
+        <v>1285</v>
       </c>
       <c r="E160">
         <v>0</v>
@@ -6282,13 +6764,16 @@
       <c r="J160">
         <v>1</v>
       </c>
-    </row>
-    <row r="161" spans="1:10">
+      <c r="K160">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>80</v>
       </c>
-      <c r="B161">
-        <v>1.0980000000000001</v>
+      <c r="B161" s="1">
+        <v>1098</v>
       </c>
       <c r="C161">
         <v>52</v>
@@ -6314,8 +6799,11 @@
       <c r="J161">
         <v>0</v>
       </c>
-    </row>
-    <row r="162" spans="1:10">
+      <c r="K161">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>80</v>
       </c>
@@ -6346,13 +6834,16 @@
       <c r="J162">
         <v>0</v>
       </c>
-    </row>
-    <row r="163" spans="1:10">
+      <c r="K162">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>81</v>
       </c>
-      <c r="B163">
-        <v>1.26</v>
+      <c r="B163" s="1">
+        <v>1260</v>
       </c>
       <c r="C163">
         <v>27</v>
@@ -6378,13 +6869,16 @@
       <c r="J163">
         <v>0</v>
       </c>
-    </row>
-    <row r="164" spans="1:10">
+      <c r="K163">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>81</v>
       </c>
-      <c r="B164">
-        <v>1.4750000000000001</v>
+      <c r="B164" s="1">
+        <v>1475</v>
       </c>
       <c r="C164">
         <v>40</v>
@@ -6410,19 +6904,22 @@
       <c r="J164">
         <v>0</v>
       </c>
-    </row>
-    <row r="165" spans="1:10">
+      <c r="K164">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>82</v>
       </c>
-      <c r="B165">
-        <v>1.694</v>
+      <c r="B165" s="1">
+        <v>1694</v>
       </c>
       <c r="C165">
         <v>26</v>
       </c>
-      <c r="D165">
-        <v>2.7389999999999999</v>
+      <c r="D165" s="1">
+        <v>2739</v>
       </c>
       <c r="E165">
         <v>0</v>
@@ -6442,19 +6939,22 @@
       <c r="J165">
         <v>0</v>
       </c>
-    </row>
-    <row r="166" spans="1:10">
+      <c r="K165">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>82</v>
       </c>
-      <c r="B166">
-        <v>1.992</v>
+      <c r="B166" s="1">
+        <v>1992</v>
       </c>
       <c r="C166">
         <v>36</v>
       </c>
-      <c r="D166">
-        <v>2.9279999999999999</v>
+      <c r="D166" s="1">
+        <v>2928</v>
       </c>
       <c r="E166">
         <v>5</v>
@@ -6474,13 +6974,16 @@
       <c r="J166">
         <v>0</v>
       </c>
-    </row>
-    <row r="167" spans="1:10">
+      <c r="K166">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>83</v>
       </c>
-      <c r="B167">
-        <v>1.054</v>
+      <c r="B167" s="1">
+        <v>1054</v>
       </c>
       <c r="C167">
         <v>34</v>
@@ -6506,13 +7009,16 @@
       <c r="J167">
         <v>4</v>
       </c>
-    </row>
-    <row r="168" spans="1:10">
+      <c r="K167">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>83</v>
       </c>
-      <c r="B168">
-        <v>1.583</v>
+      <c r="B168" s="1">
+        <v>1583</v>
       </c>
       <c r="C168">
         <v>49</v>
@@ -6538,8 +7044,11 @@
       <c r="J168">
         <v>1</v>
       </c>
-    </row>
-    <row r="169" spans="1:10">
+      <c r="K168">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>84</v>
       </c>
@@ -6549,8 +7058,8 @@
       <c r="C169">
         <v>54</v>
       </c>
-      <c r="D169">
-        <v>1.4350000000000001</v>
+      <c r="D169" s="1">
+        <v>1435</v>
       </c>
       <c r="E169">
         <v>1</v>
@@ -6570,8 +7079,11 @@
       <c r="J169">
         <v>0</v>
       </c>
-    </row>
-    <row r="170" spans="1:10">
+      <c r="K169">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>84</v>
       </c>
@@ -6581,8 +7093,8 @@
       <c r="C170">
         <v>82</v>
       </c>
-      <c r="D170">
-        <v>1.603</v>
+      <c r="D170" s="1">
+        <v>1603</v>
       </c>
       <c r="E170">
         <v>1</v>
@@ -6602,19 +7114,22 @@
       <c r="J170">
         <v>0</v>
       </c>
-    </row>
-    <row r="171" spans="1:10">
+      <c r="K170">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>85</v>
       </c>
-      <c r="B171">
-        <v>2.5259999999999998</v>
+      <c r="B171" s="1">
+        <v>2526</v>
       </c>
       <c r="C171">
         <v>8</v>
       </c>
-      <c r="D171">
-        <v>1.0649999999999999</v>
+      <c r="D171" s="1">
+        <v>1065</v>
       </c>
       <c r="E171">
         <v>1</v>
@@ -6634,19 +7149,22 @@
       <c r="J171">
         <v>0</v>
       </c>
-    </row>
-    <row r="172" spans="1:10">
+      <c r="K171">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>85</v>
       </c>
-      <c r="B172">
-        <v>3.3010000000000002</v>
+      <c r="B172" s="1">
+        <v>3301</v>
       </c>
       <c r="C172">
         <v>7</v>
       </c>
-      <c r="D172">
-        <v>1.1830000000000001</v>
+      <c r="D172" s="1">
+        <v>1183</v>
       </c>
       <c r="E172">
         <v>0</v>
@@ -6666,8 +7184,11 @@
       <c r="J172">
         <v>0</v>
       </c>
-    </row>
-    <row r="173" spans="1:10">
+      <c r="K172">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>86</v>
       </c>
@@ -6677,8 +7198,8 @@
       <c r="C173">
         <v>34</v>
       </c>
-      <c r="D173">
-        <v>1.2450000000000001</v>
+      <c r="D173" s="1">
+        <v>1245</v>
       </c>
       <c r="E173">
         <v>0</v>
@@ -6698,19 +7219,22 @@
       <c r="J173">
         <v>0</v>
       </c>
-    </row>
-    <row r="174" spans="1:10">
+      <c r="K173">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>86</v>
       </c>
-      <c r="B174">
-        <v>1.113</v>
+      <c r="B174" s="1">
+        <v>1113</v>
       </c>
       <c r="C174">
         <v>12</v>
       </c>
-      <c r="D174">
-        <v>1.109</v>
+      <c r="D174" s="1">
+        <v>1109</v>
       </c>
       <c r="E174">
         <v>3</v>
@@ -6730,19 +7254,22 @@
       <c r="J174">
         <v>0</v>
       </c>
-    </row>
-    <row r="175" spans="1:10">
+      <c r="K174">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>87</v>
       </c>
-      <c r="B175">
-        <v>1.0089999999999999</v>
+      <c r="B175" s="1">
+        <v>1009</v>
       </c>
       <c r="C175">
         <v>13</v>
       </c>
-      <c r="D175">
-        <v>2.3690000000000002</v>
+      <c r="D175" s="1">
+        <v>2369</v>
       </c>
       <c r="E175">
         <v>0</v>
@@ -6762,19 +7289,22 @@
       <c r="J175">
         <v>0</v>
       </c>
-    </row>
-    <row r="176" spans="1:10">
+      <c r="K175">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>87</v>
       </c>
-      <c r="B176">
-        <v>1.5349999999999999</v>
+      <c r="B176" s="1">
+        <v>1535</v>
       </c>
       <c r="C176">
         <v>43</v>
       </c>
-      <c r="D176">
-        <v>2.7909999999999999</v>
+      <c r="D176" s="1">
+        <v>2791</v>
       </c>
       <c r="E176">
         <v>1</v>
@@ -6794,19 +7324,22 @@
       <c r="J176">
         <v>0</v>
       </c>
-    </row>
-    <row r="177" spans="1:10">
+      <c r="K176">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>88</v>
       </c>
-      <c r="B177">
-        <v>1.272</v>
+      <c r="B177" s="1">
+        <v>1272</v>
       </c>
       <c r="C177">
         <v>11</v>
       </c>
-      <c r="D177">
-        <v>1.079</v>
+      <c r="D177" s="1">
+        <v>1079</v>
       </c>
       <c r="E177">
         <v>0</v>
@@ -6826,19 +7359,22 @@
       <c r="J177">
         <v>0</v>
       </c>
-    </row>
-    <row r="178" spans="1:10">
+      <c r="K177">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>88</v>
       </c>
-      <c r="B178">
-        <v>1.869</v>
+      <c r="B178" s="1">
+        <v>1869</v>
       </c>
       <c r="C178">
         <v>14</v>
       </c>
-      <c r="D178">
-        <v>1.014</v>
+      <c r="D178" s="1">
+        <v>1014</v>
       </c>
       <c r="E178">
         <v>1</v>
@@ -6858,19 +7394,22 @@
       <c r="J178">
         <v>0</v>
       </c>
-    </row>
-    <row r="179" spans="1:10">
+      <c r="K178">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>89</v>
       </c>
-      <c r="B179">
-        <v>1.2130000000000001</v>
+      <c r="B179" s="1">
+        <v>1213</v>
       </c>
       <c r="C179">
         <v>83</v>
       </c>
-      <c r="D179">
-        <v>2.4860000000000002</v>
+      <c r="D179" s="1">
+        <v>2486</v>
       </c>
       <c r="E179">
         <v>1</v>
@@ -6890,19 +7429,22 @@
       <c r="J179">
         <v>0</v>
       </c>
-    </row>
-    <row r="180" spans="1:10">
+      <c r="K179">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>89</v>
       </c>
-      <c r="B180">
-        <v>1.2130000000000001</v>
+      <c r="B180" s="1">
+        <v>1213</v>
       </c>
       <c r="C180">
         <v>151</v>
       </c>
-      <c r="D180">
-        <v>2.9729999999999999</v>
+      <c r="D180" s="1">
+        <v>2973</v>
       </c>
       <c r="E180">
         <v>2</v>
@@ -6922,19 +7464,22 @@
       <c r="J180">
         <v>0</v>
       </c>
-    </row>
-    <row r="181" spans="1:10">
+      <c r="K180">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>90</v>
       </c>
-      <c r="B181">
-        <v>1.764</v>
+      <c r="B181" s="1">
+        <v>1764</v>
       </c>
       <c r="C181">
         <v>97</v>
       </c>
-      <c r="D181">
-        <v>2.802</v>
+      <c r="D181" s="1">
+        <v>2802</v>
       </c>
       <c r="E181">
         <v>0</v>
@@ -6954,19 +7499,22 @@
       <c r="J181">
         <v>1</v>
       </c>
-    </row>
-    <row r="182" spans="1:10">
+      <c r="K181">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>90</v>
       </c>
-      <c r="B182">
-        <v>2.0710000000000002</v>
+      <c r="B182" s="1">
+        <v>2071</v>
       </c>
       <c r="C182">
         <v>104</v>
       </c>
-      <c r="D182">
-        <v>2.7440000000000002</v>
+      <c r="D182" s="1">
+        <v>2744</v>
       </c>
       <c r="E182">
         <v>2</v>
@@ -6986,8 +7534,11 @@
       <c r="J182">
         <v>0</v>
       </c>
-    </row>
-    <row r="183" spans="1:10">
+      <c r="K182">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>91</v>
       </c>
@@ -7018,8 +7569,11 @@
       <c r="J183">
         <v>0</v>
       </c>
-    </row>
-    <row r="184" spans="1:10">
+      <c r="K183">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>91</v>
       </c>
@@ -7050,8 +7604,11 @@
       <c r="J184">
         <v>0</v>
       </c>
-    </row>
-    <row r="185" spans="1:10">
+      <c r="K184">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>92</v>
       </c>
@@ -7082,8 +7639,11 @@
       <c r="J185">
         <v>0</v>
       </c>
-    </row>
-    <row r="186" spans="1:10">
+      <c r="K185">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>92</v>
       </c>
@@ -7093,8 +7653,8 @@
       <c r="C186">
         <v>18</v>
       </c>
-      <c r="D186">
-        <v>1.091</v>
+      <c r="D186" s="1">
+        <v>1091</v>
       </c>
       <c r="E186">
         <v>0</v>
@@ -7113,6 +7673,9 @@
       </c>
       <c r="J186">
         <v>0</v>
+      </c>
+      <c r="K186">
+        <v>2019</v>
       </c>
     </row>
   </sheetData>
